--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacao-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brlocalaplicacao-sct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421DCE24-A0B9-F54D-B1D5-F2FADEEE4B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A9F2D-0B5F-824A-BF71-871800722FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1800" windowWidth="26200" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1500" windowWidth="26200" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="brlocalaplicacaoxGPSbodystructu" sheetId="1" r:id="rId1"/>
@@ -6431,6 +6431,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6445,12 +6455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6474,6 +6478,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6495,6 +6505,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6503,25 +6522,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6819,7 +6819,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6836,16 +6836,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="20" t="s">
         <v>2053</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="21" t="s">
         <v>2054</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="20" t="s">
         <v>2055</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="21" t="s">
         <v>2056</v>
       </c>
       <c r="E1" s="7"/>
@@ -7117,7 +7117,7 @@
       <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="24" t="s">
         <v>1061</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -7155,7 +7155,7 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
@@ -7736,10 +7736,10 @@
       <c r="J25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="27" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -7774,8 +7774,8 @@
       <c r="J26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
@@ -7873,74 +7873,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="20" t="s">
         <v>2053</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="21" t="s">
         <v>2054</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="20" t="s">
         <v>2055</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="21" t="s">
         <v>2056</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="20" t="s">
         <v>2053</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="21" t="s">
         <v>2054</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="20" t="s">
         <v>2055</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="21" t="s">
         <v>2056</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="20" t="s">
         <v>2053</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="21" t="s">
         <v>2054</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="20" t="s">
         <v>2055</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="21" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="50" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-    </row>
-    <row r="3" spans="1:12" s="50" customFormat="1" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
@@ -8475,22 +8475,22 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>1075</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="D18" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="1">
@@ -8513,12 +8513,12 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="1">
         <v>6</v>
       </c>
@@ -8539,12 +8539,12 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="1">
         <v>7</v>
       </c>
@@ -8565,12 +8565,12 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="1">
         <v>10</v>
       </c>
@@ -8591,12 +8591,12 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="1">
         <v>11</v>
       </c>
@@ -20815,19 +20815,19 @@
       </c>
     </row>
     <row r="344" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A344" s="25" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B344" s="34" t="s">
+      <c r="A344" s="36" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B344" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="C344" s="36" t="s">
+      <c r="C344" s="40" t="s">
         <v>1387</v>
       </c>
-      <c r="D344" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E344" s="25" t="s">
+      <c r="D344" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E344" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F344" s="9" t="s">
@@ -20853,11 +20853,11 @@
       </c>
     </row>
     <row r="345" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A345" s="26"/>
-      <c r="B345" s="35"/>
-      <c r="C345" s="37"/>
-      <c r="D345" s="26"/>
-      <c r="E345" s="26"/>
+      <c r="A345" s="37"/>
+      <c r="B345" s="39"/>
+      <c r="C345" s="41"/>
+      <c r="D345" s="37"/>
+      <c r="E345" s="37"/>
       <c r="F345" s="9" t="s">
         <v>39</v>
       </c>
@@ -25099,22 +25099,22 @@
       </c>
     </row>
     <row r="457" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A457" s="31" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B457" s="23" t="s">
+      <c r="A457" s="33" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B457" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="C457" s="38" t="s">
+      <c r="C457" s="42" t="s">
         <v>1498</v>
       </c>
-      <c r="D457" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E457" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F457" s="27" t="s">
+      <c r="D457" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E457" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F457" s="29" t="s">
         <v>39</v>
       </c>
       <c r="G457" s="1">
@@ -25137,12 +25137,12 @@
       </c>
     </row>
     <row r="458" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A458" s="32"/>
-      <c r="B458" s="30"/>
-      <c r="C458" s="39"/>
-      <c r="D458" s="32"/>
-      <c r="E458" s="32"/>
-      <c r="F458" s="28"/>
+      <c r="A458" s="34"/>
+      <c r="B458" s="32"/>
+      <c r="C458" s="43"/>
+      <c r="D458" s="34"/>
+      <c r="E458" s="34"/>
+      <c r="F458" s="30"/>
       <c r="G458" s="1">
         <v>4</v>
       </c>
@@ -25163,12 +25163,12 @@
       </c>
     </row>
     <row r="459" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="32"/>
-      <c r="B459" s="30"/>
-      <c r="C459" s="39"/>
-      <c r="D459" s="32"/>
-      <c r="E459" s="32"/>
-      <c r="F459" s="28"/>
+      <c r="A459" s="34"/>
+      <c r="B459" s="32"/>
+      <c r="C459" s="43"/>
+      <c r="D459" s="34"/>
+      <c r="E459" s="34"/>
+      <c r="F459" s="30"/>
       <c r="G459" s="1">
         <v>18</v>
       </c>
@@ -25189,12 +25189,12 @@
       </c>
     </row>
     <row r="460" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A460" s="33"/>
-      <c r="B460" s="24"/>
-      <c r="C460" s="40"/>
-      <c r="D460" s="33"/>
-      <c r="E460" s="33"/>
-      <c r="F460" s="29"/>
+      <c r="A460" s="35"/>
+      <c r="B460" s="28"/>
+      <c r="C460" s="44"/>
+      <c r="D460" s="35"/>
+      <c r="E460" s="35"/>
+      <c r="F460" s="31"/>
       <c r="G460" s="1">
         <v>17</v>
       </c>
@@ -33879,22 +33879,22 @@
       </c>
     </row>
     <row r="689" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="31" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B689" s="23" t="s">
+      <c r="A689" s="33" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B689" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="C689" s="41" t="s">
+      <c r="C689" s="48" t="s">
         <v>1722</v>
       </c>
-      <c r="D689" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E689" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F689" s="28" t="s">
+      <c r="D689" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E689" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F689" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G689" s="1">
@@ -33917,12 +33917,12 @@
       </c>
     </row>
     <row r="690" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="32"/>
-      <c r="B690" s="30"/>
-      <c r="C690" s="42"/>
-      <c r="D690" s="30"/>
-      <c r="E690" s="30"/>
-      <c r="F690" s="28"/>
+      <c r="A690" s="34"/>
+      <c r="B690" s="32"/>
+      <c r="C690" s="49"/>
+      <c r="D690" s="32"/>
+      <c r="E690" s="32"/>
+      <c r="F690" s="30"/>
       <c r="G690" s="1">
         <v>14</v>
       </c>
@@ -33943,12 +33943,12 @@
       </c>
     </row>
     <row r="691" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="32"/>
-      <c r="B691" s="30"/>
-      <c r="C691" s="42"/>
-      <c r="D691" s="30"/>
-      <c r="E691" s="30"/>
-      <c r="F691" s="28"/>
+      <c r="A691" s="34"/>
+      <c r="B691" s="32"/>
+      <c r="C691" s="49"/>
+      <c r="D691" s="32"/>
+      <c r="E691" s="32"/>
+      <c r="F691" s="30"/>
       <c r="G691" s="1">
         <v>13</v>
       </c>
@@ -33969,12 +33969,12 @@
       </c>
     </row>
     <row r="692" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="32"/>
-      <c r="B692" s="30"/>
-      <c r="C692" s="42"/>
-      <c r="D692" s="30"/>
-      <c r="E692" s="30"/>
-      <c r="F692" s="28"/>
+      <c r="A692" s="34"/>
+      <c r="B692" s="32"/>
+      <c r="C692" s="49"/>
+      <c r="D692" s="32"/>
+      <c r="E692" s="32"/>
+      <c r="F692" s="30"/>
       <c r="G692" s="1">
         <v>12</v>
       </c>
@@ -33995,12 +33995,12 @@
       </c>
     </row>
     <row r="693" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="32"/>
-      <c r="B693" s="30"/>
-      <c r="C693" s="42"/>
-      <c r="D693" s="30"/>
-      <c r="E693" s="30"/>
-      <c r="F693" s="28"/>
+      <c r="A693" s="34"/>
+      <c r="B693" s="32"/>
+      <c r="C693" s="49"/>
+      <c r="D693" s="32"/>
+      <c r="E693" s="32"/>
+      <c r="F693" s="30"/>
       <c r="G693" s="1">
         <v>2</v>
       </c>
@@ -34021,12 +34021,12 @@
       </c>
     </row>
     <row r="694" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A694" s="33"/>
-      <c r="B694" s="24"/>
-      <c r="C694" s="43"/>
-      <c r="D694" s="24"/>
-      <c r="E694" s="24"/>
-      <c r="F694" s="29"/>
+      <c r="A694" s="35"/>
+      <c r="B694" s="28"/>
+      <c r="C694" s="50"/>
+      <c r="D694" s="28"/>
+      <c r="E694" s="28"/>
+      <c r="F694" s="31"/>
       <c r="G694" s="1">
         <v>1</v>
       </c>
@@ -35453,22 +35453,22 @@
       </c>
     </row>
     <row r="732" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A732" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B732" s="27" t="s">
+      <c r="A732" s="24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B732" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="C732" s="44" t="s">
+      <c r="C732" s="45" t="s">
         <v>1387</v>
       </c>
-      <c r="D732" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E732" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F732" s="31" t="s">
+      <c r="D732" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E732" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F732" s="33" t="s">
         <v>39</v>
       </c>
       <c r="G732" s="1">
@@ -35491,12 +35491,12 @@
       </c>
     </row>
     <row r="733" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A733" s="22"/>
-      <c r="B733" s="29"/>
-      <c r="C733" s="46"/>
-      <c r="D733" s="22"/>
-      <c r="E733" s="22"/>
-      <c r="F733" s="22"/>
+      <c r="A733" s="26"/>
+      <c r="B733" s="31"/>
+      <c r="C733" s="47"/>
+      <c r="D733" s="26"/>
+      <c r="E733" s="26"/>
+      <c r="F733" s="26"/>
       <c r="G733" s="1">
         <v>20</v>
       </c>
@@ -46355,15 +46355,6 @@
   </sheetData>
   <autoFilter ref="A4:L1018" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="29">
-    <mergeCell ref="F689:F694"/>
-    <mergeCell ref="A689:A694"/>
-    <mergeCell ref="E732:E733"/>
-    <mergeCell ref="F732:F733"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
     <mergeCell ref="F18:F22"/>
     <mergeCell ref="A732:A733"/>
     <mergeCell ref="B732:B733"/>
@@ -46371,19 +46362,28 @@
     <mergeCell ref="D732:D733"/>
     <mergeCell ref="B689:B694"/>
     <mergeCell ref="C689:C694"/>
-    <mergeCell ref="D689:D694"/>
-    <mergeCell ref="E689:E694"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="D344:D345"/>
+    <mergeCell ref="E344:E345"/>
+    <mergeCell ref="F689:F694"/>
+    <mergeCell ref="A689:A694"/>
+    <mergeCell ref="E732:E733"/>
+    <mergeCell ref="F732:F733"/>
     <mergeCell ref="A457:A460"/>
     <mergeCell ref="A344:A345"/>
     <mergeCell ref="B344:B345"/>
     <mergeCell ref="C344:C345"/>
     <mergeCell ref="C457:C460"/>
-    <mergeCell ref="D344:D345"/>
-    <mergeCell ref="E344:E345"/>
     <mergeCell ref="F457:F460"/>
     <mergeCell ref="B457:B460"/>
     <mergeCell ref="E457:E460"/>
     <mergeCell ref="D457:D460"/>
+    <mergeCell ref="D689:D694"/>
+    <mergeCell ref="E689:E694"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
